--- a/variant_34/Задание 18/18.xlsx
+++ b/variant_34/Задание 18/18.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Admin\Desktop\Варианты\13 вариант\Файлы\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,7 +121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -161,7 +156,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -338,23 +333,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1">
         <v>51</v>
       </c>
@@ -389,7 +384,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -424,7 +419,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>63</v>
       </c>
@@ -459,7 +454,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -494,7 +489,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>99</v>
       </c>
@@ -529,7 +524,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>35</v>
       </c>
@@ -564,7 +559,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -599,7 +594,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -634,7 +629,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -669,7 +664,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -704,7 +699,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -719,35 +714,533 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <f>A1</f>
+        <v>51</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B1+A12</f>
+        <v>72</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:J12" si="0">C1+B12</f>
+        <v>165</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>482</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <f>A2+A12</f>
+        <v>108</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B2+MIN(IF(B12 / 3 = 0,B12,A13))</f>
+        <v>151</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:J13" si="1">C2+MIN(IF(C12 / 3 = 0,C12,B13))</f>
+        <v>248</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>391</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>494</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>603</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <f t="shared" ref="A14:A23" si="2">A3+A13</f>
+        <v>171</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:B20" si="3">B3+MIN(IF(B13 / 3 = 0,B13,A14))</f>
+        <v>187</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C21" si="4">C3+MIN(IF(C13 / 3 = 0,C13,B14))</f>
+        <v>218</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:D21" si="5">D3+MIN(IF(D13 / 3 = 0,D13,C14))</f>
+        <v>234</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E21" si="6">E3+MIN(IF(E13 / 3 = 0,E13,D14))</f>
+        <v>312</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F21" si="7">F3+MIN(IF(F13 / 3 = 0,F13,E14))</f>
+        <v>400</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:G21" si="8">G3+MIN(IF(G13 / 3 = 0,G13,F14))</f>
+        <v>490</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H21" si="9">H3+MIN(IF(H13 / 3 = 0,H13,G14))</f>
+        <v>562</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14:I21" si="10">I3+MIN(IF(I13 / 3 = 0,I13,H14))</f>
+        <v>599</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J21" si="11">J3+MIN(IF(J13 / 3 = 0,J13,I14))</f>
+        <v>666</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="6"/>
+        <v>423</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="7"/>
+        <v>473</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="8"/>
+        <v>554</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="9"/>
+        <v>619</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="10"/>
+        <v>710</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="11"/>
+        <v>779</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="3"/>
+        <v>323</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="4"/>
+        <v>418</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="5"/>
+        <v>425</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="6"/>
+        <v>465</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="7"/>
+        <v>541</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="8"/>
+        <v>559</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="9"/>
+        <v>593</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="10"/>
+        <v>598</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="11"/>
+        <v>663</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="3"/>
+        <v>334</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="5"/>
+        <v>482</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="6"/>
+        <v>546</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="7"/>
+        <v>584</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="8"/>
+        <v>646</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="9"/>
+        <v>702</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="10"/>
+        <v>712</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="11"/>
+        <v>714</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="3"/>
+        <v>472</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="4"/>
+        <v>499</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="5"/>
+        <v>525</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="6"/>
+        <v>576</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="7"/>
+        <v>609</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="8"/>
+        <v>709</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="9"/>
+        <v>720</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="10"/>
+        <v>773</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="11"/>
+        <v>774</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>426</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="3"/>
+        <v>505</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="4"/>
+        <v>554</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="6"/>
+        <v>637</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="7"/>
+        <v>706</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="8"/>
+        <v>786</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="9"/>
+        <v>817</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="10"/>
+        <v>842</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="11"/>
+        <v>881</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>448</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="3"/>
+        <v>519</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="4"/>
+        <v>539</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="5"/>
+        <v>562</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="6"/>
+        <v>573</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="7"/>
+        <v>585</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="8"/>
+        <v>624</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="9"/>
+        <v>640</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="10"/>
+        <v>704</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="11"/>
+        <v>738</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B10+MIN(IF(B20 / 3 = 0,B20,A21))</f>
+        <v>477</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="4"/>
+        <v>564</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="5"/>
+        <v>648</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="6"/>
+        <v>678</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="7"/>
+        <v>726</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="8"/>
+        <v>803</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="9"/>
+        <v>816</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="10"/>
+        <v>856</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="11"/>
+        <v>889</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
